--- a/data/trans_dic/iP30KDA2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>57,61%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,54; 73,67</t>
+          <t>42,22; 64,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,32; 65,86</t>
+          <t>49,4; 71,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,55; 66,98</t>
+          <t>49,71; 65,66</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,16%</t>
+          <t>64,91%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 71,15</t>
+          <t>58,79; 71,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,68; 72,71</t>
+          <t>58,17; 70,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,94; 70,45</t>
+          <t>60,51; 69,24</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>63,36%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>61,9%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,04; 69,26</t>
+          <t>53,74; 67,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,84; 68,11</t>
+          <t>56,39; 68,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,28; 67,38</t>
+          <t>57,43; 66,24</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>49,52%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,81; 59,98</t>
+          <t>32,7; 55,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 58,53</t>
+          <t>43,66; 57,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,85; 57,94</t>
+          <t>42,31; 55,04</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>57,23%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,37; 63,59</t>
+          <t>47,91; 59,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,21; 62,59</t>
+          <t>54,17; 61,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,0; 62,23</t>
+          <t>52,9; 59,99</t>
         </is>
       </c>
     </row>
